--- a/Documentation/Log.xlsx
+++ b/Documentation/Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Platformer-Game\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEB4CD5-BE09-4CA0-9CC4-9050E26C7C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE57AF22-1BD6-4AF1-B6FB-CF2621E020FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA0AC7D3-9A16-4946-B3FF-D007B58B57CC}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documentation/Log.xlsx
+++ b/Documentation/Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Platformer-Game\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE57AF22-1BD6-4AF1-B6FB-CF2621E020FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE657F2-4B19-4471-BF1B-2716099A0746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA0AC7D3-9A16-4946-B3FF-D007B58B57CC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Days worked on project</t>
+  </si>
+  <si>
+    <t>Looked for sprites that i can use for the game.</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
   <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,16 +460,22 @@
       </c>
       <c r="F3">
         <f>SUM(C3:C100)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <f>COUNT(C3:C100)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>44358</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">

--- a/Documentation/Log.xlsx
+++ b/Documentation/Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Platformer-Game\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE657F2-4B19-4471-BF1B-2716099A0746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE58F91-7264-4A03-824B-F04B1764B51E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA0AC7D3-9A16-4946-B3FF-D007B58B57CC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Looked for sprites that i can use for the game.</t>
+  </si>
+  <si>
+    <t>Added more potential sprites that i can use, implemented them in unity to see how they work and how i can use them to make levels</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,11 +463,11 @@
       </c>
       <c r="F3">
         <f>SUM(C3:C100)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <f>COUNT(C3:C100)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -481,6 +484,12 @@
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>44359</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">

--- a/Documentation/Log.xlsx
+++ b/Documentation/Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Platformer-Game\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE58F91-7264-4A03-824B-F04B1764B51E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F59CFC4-C926-406E-8F2D-12C9533E1FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA0AC7D3-9A16-4946-B3FF-D007B58B57CC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Added more potential sprites that i can use, implemented them in unity to see how they work and how i can use them to make levels</t>
+  </si>
+  <si>
+    <t>Started making a basic level with a background, foreground, a moveable player and level details, for example trees and bushes</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,11 +466,11 @@
       </c>
       <c r="F3">
         <f>SUM(C3:C100)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <f>COUNT(C3:C100)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -510,6 +513,12 @@
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>44363</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
